--- a/EM Analyzer/bin/Debug/Hanaka_reduced - Second - Considered By Participant.xlsx
+++ b/EM Analyzer/bin/Debug/Hanaka_reduced - Second - Considered By Participant.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="523">
   <si>
     <t>Participant</t>
   </si>
@@ -107,1282 +107,1423 @@
     <t>148.931034482759</t>
   </si>
   <si>
+    <t>1102.06896551724</t>
+  </si>
+  <si>
+    <t>3.10344827586207</t>
+  </si>
+  <si>
     <t>179.344827586207</t>
   </si>
   <si>
+    <t>328.275862068966</t>
+  </si>
+  <si>
+    <t>852.413793103448</t>
+  </si>
+  <si>
+    <t>2.41379310344828</t>
+  </si>
+  <si>
+    <t>1001.34482758621</t>
+  </si>
+  <si>
+    <t>2.75862068965517</t>
+  </si>
+  <si>
+    <t>100.724137931034</t>
+  </si>
+  <si>
     <t>0.344827586206897</t>
   </si>
   <si>
-    <t>328.275862068966</t>
+    <t>1082.79310344828</t>
+  </si>
+  <si>
+    <t>1.22323049001815</t>
+  </si>
+  <si>
+    <t>112.821428571429</t>
+  </si>
+  <si>
+    <t>894.25</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>781.428571428571</t>
+  </si>
+  <si>
+    <t>2.14285714285714</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.357142857142857</t>
+  </si>
+  <si>
+    <t>857.107142857143</t>
+  </si>
+  <si>
+    <t>1.22959183673469</t>
+  </si>
+  <si>
+    <t>889.9375</t>
+  </si>
+  <si>
+    <t>600.125</t>
+  </si>
+  <si>
+    <t>1.875</t>
+  </si>
+  <si>
+    <t>862.3125</t>
+  </si>
+  <si>
+    <t>1516.68</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>108.76</t>
+  </si>
+  <si>
+    <t>633.48</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>523.12</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>476.72</t>
+  </si>
+  <si>
+    <t>1.31272727272727</t>
+  </si>
+  <si>
+    <t>1426.08695652174</t>
+  </si>
+  <si>
+    <t>786.04347826087</t>
+  </si>
+  <si>
+    <t>3.04347826086957</t>
+  </si>
+  <si>
+    <t>692.173913043478</t>
+  </si>
+  <si>
+    <t>2.60869565217391</t>
+  </si>
+  <si>
+    <t>1.46488294314381</t>
+  </si>
+  <si>
+    <t>199.928571428571</t>
+  </si>
+  <si>
+    <t>477.357142857143</t>
+  </si>
+  <si>
+    <t>1.42857142857143</t>
+  </si>
+  <si>
+    <t>725.642857142857</t>
+  </si>
+  <si>
+    <t>992.04</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>161.68</t>
+  </si>
+  <si>
+    <t>553.56</t>
+  </si>
+  <si>
+    <t>715.24</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>857.68</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>134.36</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.32444444444444</t>
+  </si>
+  <si>
+    <t>870.6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>773.266666666667</t>
+  </si>
+  <si>
+    <t>2.66666666666667</t>
+  </si>
+  <si>
+    <t>611.933333333333</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>646.6</t>
+  </si>
+  <si>
+    <t>2.33333333333333</t>
+  </si>
+  <si>
+    <t>126.666666666667</t>
+  </si>
+  <si>
+    <t>0.333333333333333</t>
+  </si>
+  <si>
+    <t>1.0962962962963</t>
+  </si>
+  <si>
+    <t>796.75</t>
+  </si>
+  <si>
+    <t>671.75</t>
+  </si>
+  <si>
+    <t>2.08333333333333</t>
+  </si>
+  <si>
+    <t>635.083333333333</t>
+  </si>
+  <si>
+    <t>1.66666666666667</t>
+  </si>
+  <si>
+    <t>1.34027777777778</t>
+  </si>
+  <si>
+    <t>787.40625</t>
+  </si>
+  <si>
+    <t>117.46875</t>
+  </si>
+  <si>
+    <t>669.9375</t>
+  </si>
+  <si>
+    <t>1.5625</t>
+  </si>
+  <si>
+    <t>0.994791666666667</t>
+  </si>
+  <si>
+    <t>0.384615384615385</t>
+  </si>
+  <si>
+    <t>1.24615384615385</t>
+  </si>
+  <si>
+    <t>1091.76470588235</t>
+  </si>
+  <si>
+    <t>4.11764705882353</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>2.35294117647059</t>
+  </si>
+  <si>
+    <t>454.176470588235</t>
+  </si>
+  <si>
+    <t>1.76470588235294</t>
+  </si>
+  <si>
+    <t>0.588235294117647</t>
+  </si>
+  <si>
+    <t>1.88235294117647</t>
+  </si>
+  <si>
+    <t>682.4375</t>
+  </si>
+  <si>
+    <t>177.5</t>
+  </si>
+  <si>
+    <t>504.9375</t>
+  </si>
+  <si>
+    <t>1.90625</t>
+  </si>
+  <si>
+    <t>977.366666666667</t>
+  </si>
+  <si>
+    <t>908.033333333333</t>
+  </si>
+  <si>
+    <t>1.33333333333333</t>
+  </si>
+  <si>
+    <t>934.666666666667</t>
+  </si>
+  <si>
+    <t>42.7000000000001</t>
+  </si>
+  <si>
+    <t>620.1</t>
+  </si>
+  <si>
+    <t>1.08333333333333</t>
+  </si>
+  <si>
+    <t>992.764705882353</t>
+  </si>
+  <si>
+    <t>169.235294117647</t>
+  </si>
+  <si>
+    <t>849.235294117647</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>1.17647058823529</t>
+  </si>
+  <si>
+    <t>846.793103448276</t>
+  </si>
+  <si>
+    <t>2.06896551724138</t>
+  </si>
+  <si>
+    <t>68.9655172413793</t>
+  </si>
+  <si>
+    <t>1.72413793103448</t>
+  </si>
+  <si>
+    <t>777.827586206897</t>
+  </si>
+  <si>
+    <t>1.07471264367816</t>
+  </si>
+  <si>
+    <t>744.555555555556</t>
+  </si>
+  <si>
+    <t>88.9722222222222</t>
+  </si>
+  <si>
+    <t>721.25</t>
+  </si>
+  <si>
+    <t>2.22222222222222</t>
+  </si>
+  <si>
+    <t>161.111111111111</t>
+  </si>
+  <si>
+    <t>0.833333333333333</t>
+  </si>
+  <si>
+    <t>1.11111111111111</t>
+  </si>
+  <si>
+    <t>447.805555555556</t>
+  </si>
+  <si>
+    <t>1.38888888888889</t>
+  </si>
+  <si>
+    <t>536.777777777778</t>
+  </si>
+  <si>
+    <t>184.472222222222</t>
+  </si>
+  <si>
+    <t>0.555555555555556</t>
+  </si>
+  <si>
+    <t>1267.4375</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>122.4375</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>3.125</t>
+  </si>
+  <si>
+    <t>764.9375</t>
+  </si>
+  <si>
+    <t>91.1111111111111</t>
+  </si>
+  <si>
+    <t>654.277777777778</t>
+  </si>
+  <si>
+    <t>621.727272727273</t>
+  </si>
+  <si>
+    <t>2.72727272727273</t>
+  </si>
+  <si>
+    <t>192.545454545455</t>
+  </si>
+  <si>
+    <t>429.181818181818</t>
+  </si>
+  <si>
+    <t>1.81818181818182</t>
+  </si>
+  <si>
+    <t>628.333333333333</t>
+  </si>
+  <si>
+    <t>2.91666666666667</t>
+  </si>
+  <si>
+    <t>588.333333333333</t>
+  </si>
+  <si>
+    <t>1.26190476190476</t>
+  </si>
+  <si>
+    <t>888.25</t>
+  </si>
+  <si>
+    <t>608.166666666667</t>
+  </si>
+  <si>
+    <t>1.225</t>
+  </si>
+  <si>
+    <t>1214.2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>143.111111111111</t>
+  </si>
+  <si>
+    <t>1010.64444444444</t>
+  </si>
+  <si>
+    <t>3.55555555555556</t>
+  </si>
+  <si>
+    <t>162.688888888889</t>
+  </si>
+  <si>
+    <t>0.888888888888889</t>
+  </si>
+  <si>
+    <t>822.222222222222</t>
+  </si>
+  <si>
+    <t>869.355555555556</t>
+  </si>
+  <si>
+    <t>2.88888888888889</t>
+  </si>
+  <si>
+    <t>141.288888888889</t>
+  </si>
+  <si>
+    <t>0.666666666666667</t>
+  </si>
+  <si>
+    <t>0.444444444444444</t>
+  </si>
+  <si>
+    <t>771.577777777778</t>
+  </si>
+  <si>
+    <t>1159.88571428571</t>
+  </si>
+  <si>
+    <t>2.85714285714286</t>
+  </si>
+  <si>
+    <t>166.857142857143</t>
+  </si>
+  <si>
+    <t>1047.91428571429</t>
+  </si>
+  <si>
+    <t>2.57142857142857</t>
+  </si>
+  <si>
+    <t>642.171428571429</t>
+  </si>
+  <si>
+    <t>1.71428571428571</t>
+  </si>
+  <si>
+    <t>809.028571428571</t>
+  </si>
+  <si>
+    <t>238.885714285714</t>
+  </si>
+  <si>
+    <t>0.571428571428571</t>
+  </si>
+  <si>
+    <t>564.263157894737</t>
+  </si>
+  <si>
+    <t>1.57894736842105</t>
+  </si>
+  <si>
+    <t>783.210526315789</t>
+  </si>
+  <si>
+    <t>2.10526315789474</t>
+  </si>
+  <si>
+    <t>189.473684210526</t>
+  </si>
+  <si>
+    <t>0.526315789473684</t>
+  </si>
+  <si>
+    <t>216.736842105263</t>
+  </si>
+  <si>
+    <t>1.72105263157895</t>
+  </si>
+  <si>
+    <t>986.076923076923</t>
+  </si>
+  <si>
+    <t>3.07692307692308</t>
+  </si>
+  <si>
+    <t>692.230769230769</t>
+  </si>
+  <si>
+    <t>1.92307692307692</t>
+  </si>
+  <si>
+    <t>201.576923076923</t>
+  </si>
+  <si>
+    <t>0.769230769230769</t>
+  </si>
+  <si>
+    <t>478.423076923077</t>
+  </si>
+  <si>
+    <t>1.15384615384615</t>
+  </si>
+  <si>
+    <t>344.615384615385</t>
+  </si>
+  <si>
+    <t>621.461538461538</t>
+  </si>
+  <si>
+    <t>1.53846153846154</t>
+  </si>
+  <si>
+    <t>70.7692307692308</t>
+  </si>
+  <si>
+    <t>1.22115384615385</t>
+  </si>
+  <si>
+    <t>606.32</t>
+  </si>
+  <si>
+    <t>115.2</t>
+  </si>
+  <si>
+    <t>491.12</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>995.16</t>
+  </si>
+  <si>
+    <t>68.8</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>235.2</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>753.56</t>
+  </si>
+  <si>
+    <t>822.36</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>89.64</t>
+  </si>
+  <si>
+    <t>843.2</t>
+  </si>
+  <si>
+    <t>1.265</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>127.407407407407</t>
+  </si>
+  <si>
+    <t>287.481481481481</t>
+  </si>
+  <si>
+    <t>414.888888888889</t>
+  </si>
+  <si>
+    <t>1.48148148148148</t>
+  </si>
+  <si>
+    <t>377.888888888889</t>
+  </si>
+  <si>
+    <t>505.296296296296</t>
+  </si>
+  <si>
+    <t>1.85185185185185</t>
+  </si>
+  <si>
+    <t>186.703703703704</t>
+  </si>
+  <si>
+    <t>0.37037037037037</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>1.17283950617284</t>
+  </si>
+  <si>
+    <t>778.428571428571</t>
+  </si>
+  <si>
+    <t>3.21428571428571</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>434.178571428571</t>
+  </si>
+  <si>
+    <t>1.78571428571429</t>
+  </si>
+  <si>
+    <t>731.285714285714</t>
+  </si>
+  <si>
+    <t>1.13492063492063</t>
+  </si>
+  <si>
+    <t>634.074074074074</t>
+  </si>
+  <si>
+    <t>111.148148148148</t>
+  </si>
+  <si>
+    <t>522.925925925926</t>
+  </si>
+  <si>
+    <t>1.25925925925926</t>
+  </si>
+  <si>
+    <t>117.214285714286</t>
+  </si>
+  <si>
+    <t>545.714285714286</t>
+  </si>
+  <si>
+    <t>428.5</t>
+  </si>
+  <si>
+    <t>1.17857142857143</t>
+  </si>
+  <si>
+    <t>927.9</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>91.95</t>
+  </si>
+  <si>
+    <t>835.95</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>741.95</t>
+  </si>
+  <si>
+    <t>1.63571428571429</t>
+  </si>
+  <si>
+    <t>125.070422535211</t>
+  </si>
+  <si>
+    <t>0.140845070422535</t>
+  </si>
+  <si>
+    <t>82.830985915493</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>900.655172413793</t>
+  </si>
+  <si>
+    <t>4.13793103448276</t>
+  </si>
+  <si>
+    <t>48.2413793103448</t>
+  </si>
+  <si>
+    <t>656.48275862069</t>
+  </si>
+  <si>
+    <t>20.6896551724138</t>
+  </si>
+  <si>
+    <t>68.9310344827586</t>
   </si>
   <si>
     <t>0.689655172413793</t>
   </si>
   <si>
-    <t>1.22323049001815</t>
-  </si>
-  <si>
-    <t>112.821428571429</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.357142857142857</t>
-  </si>
-  <si>
-    <t>857.107142857143</t>
-  </si>
-  <si>
-    <t>1.22959183673469</t>
-  </si>
-  <si>
-    <t>649.9375</t>
-  </si>
-  <si>
-    <t>1.875</t>
-  </si>
-  <si>
-    <t>360.125</t>
+    <t>395.827586206897</t>
+  </si>
+  <si>
+    <t>1.37931034482759</t>
+  </si>
+  <si>
+    <t>444.068965517241</t>
+  </si>
+  <si>
+    <t>212.413793103448</t>
+  </si>
+  <si>
+    <t>1.03448275862069</t>
+  </si>
+  <si>
+    <t>244.172413793103</t>
+  </si>
+  <si>
+    <t>140.689655172414</t>
+  </si>
+  <si>
+    <t>1.41954022988506</t>
+  </si>
+  <si>
+    <t>781.464285714286</t>
+  </si>
+  <si>
+    <t>142.857142857143</t>
+  </si>
+  <si>
+    <t>399.964285714286</t>
+  </si>
+  <si>
+    <t>542.821428571429</t>
+  </si>
+  <si>
+    <t>238.642857142857</t>
+  </si>
+  <si>
+    <t>1.07142857142857</t>
+  </si>
+  <si>
+    <t>560.035714285714</t>
+  </si>
+  <si>
+    <t>1.33482142857143</t>
+  </si>
+  <si>
+    <t>873.52</t>
+  </si>
+  <si>
+    <t>102.4</t>
+  </si>
+  <si>
+    <t>692.8</t>
+  </si>
+  <si>
+    <t>270.36</t>
+  </si>
+  <si>
+    <t>372.76</t>
+  </si>
+  <si>
+    <t>412.8</t>
+  </si>
+  <si>
+    <t>515.2</t>
+  </si>
+  <si>
+    <t>177.6</t>
+  </si>
+  <si>
+    <t>315.12</t>
+  </si>
+  <si>
+    <t>134.4</t>
+  </si>
+  <si>
+    <t>1034.60869565217</t>
+  </si>
+  <si>
+    <t>3.91304347826087</t>
+  </si>
+  <si>
+    <t>182.565217391304</t>
+  </si>
+  <si>
+    <t>652.086956521739</t>
+  </si>
+  <si>
+    <t>2.17391304347826</t>
+  </si>
+  <si>
+    <t>170.260869565217</t>
+  </si>
+  <si>
+    <t>0.869565217391304</t>
+  </si>
+  <si>
+    <t>352.826086956522</t>
+  </si>
+  <si>
+    <t>1.30434782608696</t>
+  </si>
+  <si>
+    <t>370.217391304348</t>
+  </si>
+  <si>
+    <t>552.782608695652</t>
+  </si>
+  <si>
+    <t>1.73913043478261</t>
+  </si>
+  <si>
+    <t>99.304347826087</t>
+  </si>
+  <si>
+    <t>0.434782608695652</t>
+  </si>
+  <si>
+    <t>279.913043478261</t>
+  </si>
+  <si>
+    <t>1.72463768115942</t>
+  </si>
+  <si>
+    <t>61.6666666666667</t>
+  </si>
+  <si>
+    <t>971.708333333333</t>
+  </si>
+  <si>
+    <t>3.33333333333333</t>
+  </si>
+  <si>
+    <t>0.416666666666667</t>
+  </si>
+  <si>
+    <t>430.083333333333</t>
+  </si>
+  <si>
+    <t>491.75</t>
+  </si>
+  <si>
+    <t>479.958333333333</t>
+  </si>
+  <si>
+    <t>1.44128787878788</t>
+  </si>
+  <si>
+    <t>1318.44</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>881.6</t>
+  </si>
+  <si>
+    <t>550.4</t>
+  </si>
+  <si>
+    <t>721.68</t>
+  </si>
+  <si>
+    <t>169.48</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1346.6</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>35.9666666666667</t>
+  </si>
+  <si>
+    <t>637.3</t>
+  </si>
+  <si>
+    <t>432.066666666667</t>
+  </si>
+  <si>
+    <t>468.033333333333</t>
+  </si>
+  <si>
+    <t>169.266666666667</t>
+  </si>
+  <si>
+    <t>709.3</t>
+  </si>
+  <si>
+    <t>526.633333333333</t>
+  </si>
+  <si>
+    <t>1.27222222222222</t>
+  </si>
+  <si>
+    <t>1319.80769230769</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>95.3076923076923</t>
+  </si>
+  <si>
+    <t>602.961538461538</t>
+  </si>
+  <si>
+    <t>319.923076923077</t>
+  </si>
+  <si>
+    <t>415.230769230769</t>
+  </si>
+  <si>
+    <t>187.730769230769</t>
+  </si>
+  <si>
+    <t>958.346153846154</t>
+  </si>
+  <si>
+    <t>279.961538461539</t>
+  </si>
+  <si>
+    <t>1.39940828402367</t>
+  </si>
+  <si>
+    <t>82.5</t>
+  </si>
+  <si>
+    <t>79.9375</t>
+  </si>
+  <si>
+    <t>0.3125</t>
+  </si>
+  <si>
+    <t>201.125</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>365.125</t>
   </si>
   <si>
     <t>1.25</t>
   </si>
   <si>
-    <t>862.3125</t>
-  </si>
-  <si>
-    <t>108.76</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>476.72</t>
-  </si>
-  <si>
-    <t>1.31272727272727</t>
-  </si>
-  <si>
-    <t>1426.08695652174</t>
-  </si>
-  <si>
-    <t>50.4782608695652</t>
-  </si>
-  <si>
-    <t>0.434782608695652</t>
-  </si>
-  <si>
-    <t>786.04347826087</t>
-  </si>
-  <si>
-    <t>1.46488294314381</t>
-  </si>
-  <si>
-    <t>199.928571428571</t>
+    <t>1.06521739130435</t>
+  </si>
+  <si>
+    <t>82.3529411764706</t>
+  </si>
+  <si>
+    <t>254.235294117647</t>
+  </si>
+  <si>
+    <t>2.94117647058824</t>
+  </si>
+  <si>
+    <t>1.97923875432526</t>
+  </si>
+  <si>
+    <t>1272.5</t>
+  </si>
+  <si>
+    <t>5.625</t>
+  </si>
+  <si>
+    <t>77.5625</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>299.9375</t>
+  </si>
+  <si>
+    <t>2.02083333333333</t>
+  </si>
+  <si>
+    <t>1111.86666666667</t>
+  </si>
+  <si>
+    <t>5.33333333333333</t>
+  </si>
+  <si>
+    <t>58.6333333333333</t>
+  </si>
+  <si>
+    <t>48.0333333333333</t>
+  </si>
+  <si>
+    <t>38.6666666666667</t>
+  </si>
+  <si>
+    <t>1053.23333333333</t>
+  </si>
+  <si>
+    <t>142.666666666667</t>
+  </si>
+  <si>
+    <t>1.19375</t>
+  </si>
+  <si>
+    <t>1751.62068965517</t>
+  </si>
+  <si>
+    <t>126.896551724138</t>
+  </si>
+  <si>
+    <t>944.724137931034</t>
+  </si>
+  <si>
+    <t>686.827586206897</t>
+  </si>
+  <si>
+    <t>813.724137931035</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>806.896551724138</t>
+  </si>
+  <si>
+    <t>1.10919540229885</t>
+  </si>
+  <si>
+    <t>1467.25</t>
+  </si>
+  <si>
+    <t>747.375</t>
+  </si>
+  <si>
+    <t>244.9375</t>
+  </si>
+  <si>
+    <t>422.4375</t>
+  </si>
+  <si>
+    <t>447.4375</t>
+  </si>
+  <si>
+    <t>624.9375</t>
+  </si>
+  <si>
+    <t>719.875</t>
+  </si>
+  <si>
+    <t>934.472222222222</t>
+  </si>
+  <si>
+    <t>4.44444444444444</t>
+  </si>
+  <si>
+    <t>33.3333333333333</t>
+  </si>
+  <si>
+    <t>841.111111111111</t>
+  </si>
+  <si>
+    <t>3.88888888888889</t>
+  </si>
+  <si>
+    <t>38.9166666666667</t>
+  </si>
+  <si>
+    <t>0.277777777777778</t>
+  </si>
+  <si>
+    <t>592.222222222222</t>
+  </si>
+  <si>
+    <t>631.138888888889</t>
+  </si>
+  <si>
+    <t>2.77777777777778</t>
+  </si>
+  <si>
+    <t>209.972222222222</t>
+  </si>
+  <si>
+    <t>0.984375</t>
+  </si>
+  <si>
+    <t>812.138888888889</t>
+  </si>
+  <si>
+    <t>3.61111111111111</t>
+  </si>
+  <si>
+    <t>63.3611111111111</t>
+  </si>
+  <si>
+    <t>791.027777777778</t>
+  </si>
+  <si>
+    <t>95.5277777777778</t>
+  </si>
+  <si>
+    <t>158.888888888889</t>
+  </si>
+  <si>
+    <t>651.083333333333</t>
+  </si>
+  <si>
+    <t>714.444444444444</t>
+  </si>
+  <si>
+    <t>76.5833333333334</t>
+  </si>
+  <si>
+    <t>185.545454545455</t>
+  </si>
+  <si>
+    <t>0.909090909090909</t>
+  </si>
+  <si>
+    <t>768.416666666667</t>
+  </si>
+  <si>
+    <t>4.16666666666667</t>
+  </si>
+  <si>
+    <t>496.75</t>
+  </si>
+  <si>
+    <t>530.083333333333</t>
+  </si>
+  <si>
+    <t>238.333333333333</t>
+  </si>
+  <si>
+    <t>1.47916666666667</t>
+  </si>
+  <si>
+    <t>1464.875</t>
+  </si>
+  <si>
+    <t>5.83333333333333</t>
+  </si>
+  <si>
+    <t>111.666666666667</t>
+  </si>
+  <si>
+    <t>116.666666666667</t>
+  </si>
+  <si>
+    <t>228.333333333333</t>
+  </si>
+  <si>
+    <t>335.083333333333</t>
+  </si>
+  <si>
+    <t>1.29761904761905</t>
+  </si>
+  <si>
+    <t>863.022222222222</t>
+  </si>
+  <si>
+    <t>581.311111111111</t>
+  </si>
+  <si>
+    <t>2.44444444444444</t>
+  </si>
+  <si>
+    <t>610.666666666667</t>
+  </si>
+  <si>
+    <t>252.355555555556</t>
+  </si>
+  <si>
+    <t>657.171428571429</t>
+  </si>
+  <si>
+    <t>2.28571428571429</t>
+  </si>
+  <si>
+    <t>568.085714285714</t>
+  </si>
+  <si>
+    <t>593.228571428572</t>
+  </si>
+  <si>
+    <t>63.9428571428572</t>
+  </si>
+  <si>
+    <t>0.285714285714286</t>
+  </si>
+  <si>
+    <t>1143.10526315789</t>
+  </si>
+  <si>
+    <t>4.21052631578947</t>
+  </si>
+  <si>
+    <t>65.2631578947369</t>
+  </si>
+  <si>
+    <t>688.526315789474</t>
+  </si>
+  <si>
+    <t>2.63157894736842</t>
+  </si>
+  <si>
+    <t>753.789473684211</t>
+  </si>
+  <si>
+    <t>3.15789473684211</t>
+  </si>
+  <si>
+    <t>389.315789473684</t>
+  </si>
+  <si>
+    <t>1.05263157894737</t>
+  </si>
+  <si>
+    <t>1.55921052631579</t>
+  </si>
+  <si>
+    <t>504.615384615385</t>
+  </si>
+  <si>
+    <t>2.69230769230769</t>
+  </si>
+  <si>
+    <t>53.8461538461538</t>
+  </si>
+  <si>
+    <t>210.769230769231</t>
+  </si>
+  <si>
+    <t>1.22527472527473</t>
+  </si>
+  <si>
+    <t>756.76</t>
+  </si>
+  <si>
+    <t>148.8</t>
+  </si>
+  <si>
+    <t>497.6</t>
+  </si>
+  <si>
+    <t>646.4</t>
+  </si>
+  <si>
+    <t>110.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>662.36</t>
+  </si>
+  <si>
+    <t>95.96</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>143.96</t>
+  </si>
+  <si>
+    <t>311.96</t>
+  </si>
+  <si>
+    <t>407.92</t>
+  </si>
+  <si>
+    <t>254.44</t>
+  </si>
+  <si>
+    <t>748.185185185185</t>
+  </si>
+  <si>
+    <t>2.96296296296296</t>
+  </si>
+  <si>
+    <t>54.8148148148148</t>
+  </si>
+  <si>
+    <t>551.148148148148</t>
+  </si>
+  <si>
+    <t>374.851851851852</t>
+  </si>
+  <si>
+    <t>429.666666666667</t>
+  </si>
+  <si>
+    <t>121.481481481481</t>
+  </si>
+  <si>
+    <t>0.740740740740741</t>
+  </si>
+  <si>
+    <t>368.851851851852</t>
+  </si>
+  <si>
+    <t>171.814814814815</t>
+  </si>
+  <si>
+    <t>1.31481481481481</t>
+  </si>
+  <si>
+    <t>3.57142857142857</t>
+  </si>
+  <si>
+    <t>131.428571428571</t>
+  </si>
+  <si>
+    <t>477.071428571429</t>
+  </si>
+  <si>
+    <t>608.5</t>
+  </si>
+  <si>
+    <t>117.142857142857</t>
   </si>
   <si>
     <t>0.714285714285714</t>
   </si>
   <si>
-    <t>1.66666666666667</t>
-  </si>
-  <si>
-    <t>403.25</t>
-  </si>
-  <si>
-    <t>143.166666666667</t>
-  </si>
-  <si>
-    <t>0.833333333333333</t>
-  </si>
-  <si>
-    <t>992.04</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>161.68</t>
-  </si>
-  <si>
-    <t>1.32444444444444</t>
-  </si>
-  <si>
-    <t>870.6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>773.266666666667</t>
-  </si>
-  <si>
-    <t>0.333333333333333</t>
-  </si>
-  <si>
-    <t>646.6</t>
-  </si>
-  <si>
-    <t>1.0962962962963</t>
-  </si>
-  <si>
-    <t>796.75</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>671.75</t>
-  </si>
-  <si>
-    <t>2.08333333333333</t>
-  </si>
-  <si>
-    <t>1.34027777777778</t>
-  </si>
-  <si>
-    <t>787.40625</t>
-  </si>
-  <si>
-    <t>117.46875</t>
-  </si>
-  <si>
-    <t>662.40625</t>
-  </si>
-  <si>
-    <t>1.5625</t>
-  </si>
-  <si>
-    <t>544.9375</t>
-  </si>
-  <si>
-    <t>0.994791666666667</t>
-  </si>
-  <si>
-    <t>1082.10714285714</t>
-  </si>
-  <si>
-    <t>3.39285714285714</t>
-  </si>
-  <si>
-    <t>0.178571428571429</t>
-  </si>
-  <si>
-    <t>492.046511627907</t>
-  </si>
-  <si>
-    <t>1.86046511627907</t>
-  </si>
-  <si>
-    <t>96.7441860465116</t>
-  </si>
-  <si>
-    <t>407.418604651163</t>
-  </si>
-  <si>
-    <t>1.3953488372093</t>
-  </si>
-  <si>
-    <t>250.255813953488</t>
-  </si>
-  <si>
-    <t>0.930232558139535</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>1.16279069767442</t>
-  </si>
-  <si>
-    <t>60.4186046511628</t>
-  </si>
-  <si>
-    <t>0.741279069767442</t>
-  </si>
-  <si>
-    <t>682.4375</t>
-  </si>
-  <si>
-    <t>177.5</t>
-  </si>
-  <si>
-    <t>504.9375</t>
-  </si>
-  <si>
-    <t>771.605263157895</t>
-  </si>
-  <si>
-    <t>1.57894736842105</t>
-  </si>
-  <si>
-    <t>282.052631578947</t>
-  </si>
-  <si>
-    <t>261.026315789474</t>
-  </si>
-  <si>
-    <t>0.263157894736842</t>
-  </si>
-  <si>
-    <t>0.526315789473684</t>
-  </si>
-  <si>
-    <t>489.552631578947</t>
-  </si>
-  <si>
-    <t>0.855263157894737</t>
-  </si>
-  <si>
-    <t>992.764705882353</t>
-  </si>
-  <si>
-    <t>2.35294117647059</t>
-  </si>
-  <si>
-    <t>169.235294117647</t>
-  </si>
-  <si>
-    <t>1.76470588235294</t>
-  </si>
-  <si>
-    <t>1.17647058823529</t>
-  </si>
-  <si>
-    <t>846.793103448276</t>
-  </si>
-  <si>
-    <t>2.06896551724138</t>
-  </si>
-  <si>
-    <t>68.9655172413793</t>
-  </si>
-  <si>
-    <t>1.72413793103448</t>
-  </si>
-  <si>
-    <t>1.07471264367816</t>
-  </si>
-  <si>
-    <t>744.555555555556</t>
-  </si>
-  <si>
-    <t>88.9722222222222</t>
-  </si>
-  <si>
-    <t>681.222222222222</t>
-  </si>
-  <si>
-    <t>1.94444444444444</t>
-  </si>
-  <si>
-    <t>161.111111111111</t>
-  </si>
-  <si>
-    <t>250.083333333333</t>
-  </si>
-  <si>
-    <t>1.11111111111111</t>
-  </si>
-  <si>
-    <t>447.805555555556</t>
-  </si>
-  <si>
-    <t>1.38888888888889</t>
-  </si>
-  <si>
-    <t>536.777777777778</t>
-  </si>
-  <si>
-    <t>0.864197530864197</t>
-  </si>
-  <si>
-    <t>1267.4375</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>122.4375</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>764.9375</t>
-  </si>
-  <si>
-    <t>988.815384615385</t>
-  </si>
-  <si>
-    <t>2.76923076923077</t>
-  </si>
-  <si>
-    <t>50.4615384615385</t>
-  </si>
-  <si>
-    <t>0.307692307692308</t>
-  </si>
-  <si>
-    <t>897.769230769231</t>
-  </si>
-  <si>
-    <t>362.369230769231</t>
-  </si>
-  <si>
-    <t>621.727272727273</t>
-  </si>
-  <si>
-    <t>2.72727272727273</t>
-  </si>
-  <si>
-    <t>192.545454545455</t>
-  </si>
-  <si>
-    <t>429.181818181818</t>
-  </si>
-  <si>
-    <t>1.81818181818182</t>
-  </si>
-  <si>
-    <t>1.62790697674419</t>
-  </si>
-  <si>
-    <t>240.93023255814</t>
-  </si>
-  <si>
-    <t>218.604651162791</t>
-  </si>
-  <si>
-    <t>0.704318936877076</t>
-  </si>
-  <si>
-    <t>888.25</t>
-  </si>
-  <si>
-    <t>608.166666666667</t>
-  </si>
-  <si>
-    <t>1.225</t>
-  </si>
-  <si>
-    <t>1214.2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>143.111111111111</t>
-  </si>
-  <si>
-    <t>203.555555555556</t>
-  </si>
-  <si>
-    <t>60.4444444444444</t>
-  </si>
-  <si>
-    <t>0.222222222222222</t>
-  </si>
-  <si>
-    <t>0.444444444444444</t>
-  </si>
-  <si>
-    <t>771.577777777778</t>
-  </si>
-  <si>
-    <t>0.687654320987654</t>
-  </si>
-  <si>
-    <t>778.428571428571</t>
-  </si>
-  <si>
-    <t>3.21428571428571</t>
-  </si>
-  <si>
-    <t>47.1428571428571</t>
-  </si>
-  <si>
-    <t>731.285714285714</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>1.13492063492063</t>
-  </si>
-  <si>
-    <t>0.208333333333333</t>
-  </si>
-  <si>
-    <t>309.145833333333</t>
-  </si>
-  <si>
-    <t>0.681547619047619</t>
-  </si>
-  <si>
-    <t>688.067796610169</t>
-  </si>
-  <si>
-    <t>1.69491525423729</t>
-  </si>
-  <si>
-    <t>98.9830508474576</t>
-  </si>
-  <si>
-    <t>621.64406779661</t>
-  </si>
-  <si>
-    <t>1.52542372881356</t>
-  </si>
-  <si>
-    <t>380.949152542373</t>
-  </si>
-  <si>
-    <t>1.01694915254237</t>
-  </si>
-  <si>
-    <t>479.93220338983</t>
-  </si>
-  <si>
-    <t>1.1864406779661</t>
-  </si>
-  <si>
-    <t>786.096153846154</t>
-  </si>
-  <si>
-    <t>1.92307692307692</t>
+    <t>351.357142857143</t>
+  </si>
+  <si>
+    <t>1079.83333333333</t>
+  </si>
+  <si>
+    <t>126.75</t>
+  </si>
+  <si>
+    <t>749.833333333333</t>
+  </si>
+  <si>
+    <t>523.083333333333</t>
+  </si>
+  <si>
+    <t>669.833333333333</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>706.903846153846</t>
-  </si>
-  <si>
-    <t>1.53846153846154</t>
-  </si>
-  <si>
-    <t>206.173076923077</t>
-  </si>
-  <si>
-    <t>0.576923076923077</t>
-  </si>
-  <si>
-    <t>286.173076923077</t>
-  </si>
-  <si>
-    <t>0.769230769230769</t>
-  </si>
-  <si>
-    <t>557.673076923077</t>
-  </si>
-  <si>
-    <t>1.15384615384615</t>
-  </si>
-  <si>
-    <t>637.673076923077</t>
-  </si>
-  <si>
-    <t>1.34615384615385</t>
-  </si>
-  <si>
-    <t>69.2307692307692</t>
-  </si>
-  <si>
-    <t>0.192307692307692</t>
-  </si>
-  <si>
-    <t>79.1923076923077</t>
-  </si>
-  <si>
-    <t>986.076923076923</t>
-  </si>
-  <si>
-    <t>3.07692307692308</t>
-  </si>
-  <si>
-    <t>692.230769230769</t>
-  </si>
-  <si>
-    <t>201.576923076923</t>
-  </si>
-  <si>
-    <t>478.423076923077</t>
-  </si>
-  <si>
-    <t>344.615384615385</t>
-  </si>
-  <si>
-    <t>621.461538461538</t>
-  </si>
-  <si>
-    <t>70.7692307692308</t>
-  </si>
-  <si>
-    <t>1.22115384615385</t>
-  </si>
-  <si>
-    <t>606.32</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>115.2</t>
-  </si>
-  <si>
-    <t>491.12</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>995.16</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>68.8</t>
-  </si>
-  <si>
-    <t>843.2</t>
-  </si>
-  <si>
-    <t>1.265</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>2.22222222222222</t>
-  </si>
-  <si>
-    <t>127.407407407407</t>
-  </si>
-  <si>
-    <t>210.37037037037</t>
-  </si>
-  <si>
-    <t>0.740740740740741</t>
-  </si>
-  <si>
-    <t>82.962962962963</t>
-  </si>
-  <si>
-    <t>0.37037037037037</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>1.17283950617284</t>
-  </si>
-  <si>
-    <t>634.074074074074</t>
-  </si>
-  <si>
-    <t>111.148148148148</t>
-  </si>
-  <si>
-    <t>522.925925925926</t>
-  </si>
-  <si>
-    <t>1.25925925925926</t>
-  </si>
-  <si>
-    <t>545.714285714286</t>
-  </si>
-  <si>
-    <t>1.78571428571429</t>
-  </si>
-  <si>
-    <t>117.214285714286</t>
-  </si>
-  <si>
-    <t>428.5</t>
-  </si>
-  <si>
-    <t>1.42857142857143</t>
-  </si>
-  <si>
-    <t>1.17857142857143</t>
-  </si>
-  <si>
-    <t>125.070422535211</t>
-  </si>
-  <si>
-    <t>0.140845070422535</t>
-  </si>
-  <si>
-    <t>82.830985915493</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>900.655172413793</t>
-  </si>
-  <si>
-    <t>4.13793103448276</t>
-  </si>
-  <si>
-    <t>48.2413793103448</t>
-  </si>
-  <si>
-    <t>656.48275862069</t>
-  </si>
-  <si>
-    <t>2.75862068965517</t>
-  </si>
-  <si>
-    <t>20.6896551724138</t>
-  </si>
-  <si>
-    <t>68.9310344827586</t>
-  </si>
-  <si>
-    <t>395.827586206897</t>
-  </si>
-  <si>
-    <t>1.37931034482759</t>
-  </si>
-  <si>
-    <t>444.068965517241</t>
-  </si>
-  <si>
-    <t>212.413793103448</t>
-  </si>
-  <si>
-    <t>244.172413793103</t>
-  </si>
-  <si>
-    <t>140.689655172414</t>
-  </si>
-  <si>
-    <t>1.41954022988506</t>
-  </si>
-  <si>
-    <t>524.452830188679</t>
-  </si>
-  <si>
-    <t>1.88679245283019</t>
-  </si>
-  <si>
-    <t>75.4716981132076</t>
-  </si>
-  <si>
-    <t>0.188679245283019</t>
-  </si>
-  <si>
-    <t>0.377358490566038</t>
-  </si>
-  <si>
-    <t>404.452830188679</t>
-  </si>
-  <si>
-    <t>282.981132075472</t>
-  </si>
-  <si>
-    <t>0.750943396226415</t>
-  </si>
-  <si>
-    <t>19.8198198198198</t>
-  </si>
-  <si>
-    <t>227.387387387387</t>
-  </si>
-  <si>
-    <t>0.720720720720721</t>
-  </si>
-  <si>
-    <t>0.0900900900900901</t>
-  </si>
-  <si>
-    <t>100.891891891892</t>
-  </si>
-  <si>
-    <t>0.36036036036036</t>
-  </si>
-  <si>
-    <t>120.711711711712</t>
-  </si>
-  <si>
-    <t>0.45045045045045</t>
-  </si>
-  <si>
-    <t>106.675675675676</t>
-  </si>
-  <si>
-    <t>0.27027027027027</t>
-  </si>
-  <si>
-    <t>402.375</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>341.21875</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>218.125</t>
-  </si>
-  <si>
-    <t>0.9375</t>
-  </si>
-  <si>
-    <t>105.609375</t>
-  </si>
-  <si>
-    <t>0.46875</t>
-  </si>
-  <si>
-    <t>145.609375</t>
-  </si>
-  <si>
-    <t>138.734375</t>
-  </si>
-  <si>
-    <t>178.734375</t>
-  </si>
-  <si>
-    <t>0.78125</t>
-  </si>
-  <si>
-    <t>39.390625</t>
-  </si>
-  <si>
-    <t>0.15625</t>
-  </si>
-  <si>
-    <t>0.3125</t>
-  </si>
-  <si>
-    <t>123.09375</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>0.5859375</t>
-  </si>
-  <si>
-    <t>559.09022556391</t>
-  </si>
-  <si>
-    <t>1.72932330827068</t>
-  </si>
-  <si>
-    <t>11.1278195488722</t>
-  </si>
-  <si>
-    <t>175.345864661654</t>
-  </si>
-  <si>
-    <t>0.601503759398496</t>
-  </si>
-  <si>
-    <t>77.609022556391</t>
-  </si>
-  <si>
-    <t>0.150375939849624</t>
-  </si>
-  <si>
-    <t>88.7368421052632</t>
-  </si>
-  <si>
-    <t>86.609022556391</t>
-  </si>
-  <si>
-    <t>0.37593984962406</t>
-  </si>
-  <si>
-    <t>0.075187969924812</t>
-  </si>
-  <si>
-    <t>347.345864661654</t>
-  </si>
-  <si>
-    <t>331.2</t>
-  </si>
-  <si>
-    <t>169.48</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>403.41726618705</t>
-  </si>
-  <si>
-    <t>1.58273381294964</t>
-  </si>
-  <si>
-    <t>197.964028776978</t>
-  </si>
-  <si>
-    <t>0.719424460431655</t>
-  </si>
-  <si>
-    <t>7.76258992805755</t>
-  </si>
-  <si>
-    <t>153.669064748201</t>
-  </si>
-  <si>
-    <t>0.431654676258993</t>
-  </si>
-  <si>
-    <t>161.431654676259</t>
-  </si>
-  <si>
-    <t>0.503597122302158</t>
-  </si>
-  <si>
-    <t>36.5323741007195</t>
-  </si>
-  <si>
-    <t>0.215827338129496</t>
-  </si>
-  <si>
-    <t>205.453237410072</t>
-  </si>
-  <si>
-    <t>52.3669064748201</t>
-  </si>
-  <si>
-    <t>867.75</t>
-  </si>
-  <si>
-    <t>2.36111111111111</t>
-  </si>
-  <si>
-    <t>87.2083333333333</t>
-  </si>
-  <si>
-    <t>0.138888888888889</t>
-  </si>
-  <si>
-    <t>0.277777777777778</t>
-  </si>
-  <si>
-    <t>0.467320261437909</t>
-  </si>
-  <si>
-    <t>121.1875</t>
-  </si>
-  <si>
-    <t>79.9375</t>
-  </si>
-  <si>
-    <t>201.125</t>
-  </si>
-  <si>
-    <t>245.15625</t>
-  </si>
-  <si>
-    <t>220.03125</t>
-  </si>
-  <si>
-    <t>1.06534090909091</t>
-  </si>
-  <si>
-    <t>716.846153846154</t>
-  </si>
-  <si>
-    <t>3.46153846153846</t>
-  </si>
-  <si>
-    <t>38.4615384615385</t>
-  </si>
-  <si>
-    <t>0.384615384615385</t>
-  </si>
-  <si>
-    <t>164.576923076923</t>
-  </si>
-  <si>
-    <t>1.40598290598291</t>
-  </si>
-  <si>
-    <t>762.724137931034</t>
-  </si>
-  <si>
-    <t>3.44827586206897</t>
-  </si>
-  <si>
-    <t>42.7931034482759</t>
-  </si>
-  <si>
-    <t>553.137931034483</t>
-  </si>
-  <si>
-    <t>595.931034482758</t>
-  </si>
-  <si>
-    <t>2.41379310344828</t>
-  </si>
-  <si>
-    <t>166.793103448276</t>
-  </si>
-  <si>
-    <t>1.11724137931034</t>
-  </si>
-  <si>
-    <t>12.7522123893805</t>
-  </si>
-  <si>
-    <t>37.8761061946903</t>
-  </si>
-  <si>
-    <t>0.0884955752212389</t>
-  </si>
-  <si>
-    <t>14.858407079646</t>
-  </si>
-  <si>
-    <t>10.2654867256637</t>
-  </si>
-  <si>
-    <t>241.743362831858</t>
-  </si>
-  <si>
-    <t>126.896551724138</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>1.10919540229885</t>
-  </si>
-  <si>
-    <t>934.472222222222</t>
-  </si>
-  <si>
-    <t>4.44444444444444</t>
-  </si>
-  <si>
-    <t>33.3333333333333</t>
-  </si>
-  <si>
-    <t>93.3611111111111</t>
-  </si>
-  <si>
-    <t>0.555555555555556</t>
-  </si>
-  <si>
-    <t>60.0277777777778</t>
-  </si>
-  <si>
-    <t>0.984375</t>
-  </si>
-  <si>
-    <t>747.375</t>
-  </si>
-  <si>
-    <t>3.125</t>
-  </si>
-  <si>
-    <t>447.4375</t>
-  </si>
-  <si>
-    <t>624.9375</t>
-  </si>
-  <si>
-    <t>812.138888888889</t>
-  </si>
-  <si>
-    <t>3.61111111111111</t>
-  </si>
-  <si>
-    <t>63.3611111111111</t>
-  </si>
-  <si>
-    <t>791.027777777778</t>
-  </si>
-  <si>
-    <t>3.33333333333333</t>
-  </si>
-  <si>
-    <t>95.5277777777778</t>
-  </si>
-  <si>
-    <t>158.888888888889</t>
-  </si>
-  <si>
-    <t>76.5833333333334</t>
-  </si>
-  <si>
-    <t>0.863247863247863</t>
-  </si>
-  <si>
-    <t>185.545454545455</t>
-  </si>
-  <si>
-    <t>0.909090909090909</t>
-  </si>
-  <si>
-    <t>768.416666666667</t>
-  </si>
-  <si>
-    <t>4.16666666666667</t>
-  </si>
-  <si>
-    <t>0.416666666666667</t>
-  </si>
-  <si>
-    <t>496.75</t>
-  </si>
-  <si>
-    <t>530.083333333333</t>
-  </si>
-  <si>
-    <t>238.333333333333</t>
-  </si>
-  <si>
-    <t>1.47916666666667</t>
-  </si>
-  <si>
-    <t>878.925</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>677.875</t>
-  </si>
-  <si>
-    <t>201.05</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.778571428571429</t>
-  </si>
-  <si>
-    <t>863.022222222222</t>
-  </si>
-  <si>
-    <t>29.3555555555556</t>
-  </si>
-  <si>
-    <t>581.311111111111</t>
-  </si>
-  <si>
-    <t>610.666666666667</t>
-  </si>
-  <si>
-    <t>252.355555555556</t>
-  </si>
-  <si>
-    <t>0.691358024691358</t>
-  </si>
-  <si>
-    <t>657.171428571429</t>
-  </si>
-  <si>
-    <t>2.28571428571429</t>
-  </si>
-  <si>
-    <t>25.1428571428571</t>
-  </si>
-  <si>
-    <t>568.085714285714</t>
-  </si>
-  <si>
-    <t>1.71428571428571</t>
-  </si>
-  <si>
-    <t>593.228571428572</t>
-  </si>
-  <si>
-    <t>63.9428571428572</t>
-  </si>
-  <si>
-    <t>0.285714285714286</t>
-  </si>
-  <si>
-    <t>0.910714285714286</t>
-  </si>
-  <si>
-    <t>1143.10526315789</t>
-  </si>
-  <si>
-    <t>4.21052631578947</t>
-  </si>
-  <si>
-    <t>65.2631578947369</t>
-  </si>
-  <si>
-    <t>1.55921052631579</t>
-  </si>
-  <si>
-    <t>27.4509803921569</t>
-  </si>
-  <si>
-    <t>257.254901960784</t>
-  </si>
-  <si>
-    <t>1.37254901960784</t>
-  </si>
-  <si>
-    <t>0.196078431372549</t>
-  </si>
-  <si>
-    <t>122.352941176471</t>
-  </si>
-  <si>
-    <t>0.784313725490196</t>
-  </si>
-  <si>
-    <t>149.803921568627</t>
-  </si>
-  <si>
-    <t>0.980392156862745</t>
-  </si>
-  <si>
-    <t>107.450980392157</t>
-  </si>
-  <si>
-    <t>0.392156862745098</t>
-  </si>
-  <si>
-    <t>0.624649859943978</t>
-  </si>
-  <si>
-    <t>34.4444444444444</t>
-  </si>
-  <si>
-    <t>175.175925925926</t>
-  </si>
-  <si>
-    <t>0.555555555555555</t>
-  </si>
-  <si>
-    <t>115.185185185185</t>
-  </si>
-  <si>
-    <t>149.62962962963</t>
-  </si>
-  <si>
-    <t>0.462962962962963</t>
-  </si>
-  <si>
-    <t>25.5462962962963</t>
-  </si>
-  <si>
-    <t>0.0925925925925926</t>
-  </si>
-  <si>
-    <t>22.212962962963</t>
-  </si>
-  <si>
-    <t>153.324074074074</t>
-  </si>
-  <si>
-    <t>11.1111111111111</t>
-  </si>
-  <si>
-    <t>33.3240740740741</t>
-  </si>
-  <si>
-    <t>0.185185185185185</t>
-  </si>
-  <si>
-    <t>72.212962962963</t>
-  </si>
-  <si>
-    <t>94.4259259259259</t>
-  </si>
-  <si>
-    <t>58.8981481481482</t>
-  </si>
-  <si>
-    <t>561.138888888889</t>
-  </si>
-  <si>
-    <t>41.1111111111111</t>
-  </si>
-  <si>
-    <t>284.5</t>
-  </si>
-  <si>
-    <t>243.388888888889</t>
-  </si>
-  <si>
-    <t>276.638888888889</t>
-  </si>
-  <si>
-    <t>128.861111111111</t>
-  </si>
-  <si>
-    <t>0.986111111111111</t>
-  </si>
-  <si>
     <t>878.571428571429</t>
   </si>
   <si>
     <t>35.7142857142857</t>
   </si>
   <si>
-    <t>1.33333333333333</t>
-  </si>
-  <si>
-    <t>725.642857142857</t>
-  </si>
-  <si>
-    <t>3.57142857142857</t>
-  </si>
-  <si>
-    <t>131.428571428571</t>
-  </si>
-  <si>
-    <t>374.285714285714</t>
-  </si>
-  <si>
-    <t>2.14285714285714</t>
-  </si>
-  <si>
-    <t>242.857142857143</t>
-  </si>
-  <si>
-    <t>351.357142857143</t>
-  </si>
-  <si>
-    <t>1079.83333333333</t>
-  </si>
-  <si>
-    <t>126.75</t>
-  </si>
-  <si>
-    <t>226.75</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>842.857142857143</t>
+  </si>
+  <si>
+    <t>782.892857142857</t>
+  </si>
+  <si>
+    <t>1459.11111111111</t>
+  </si>
+  <si>
+    <t>159.925925925926</t>
   </si>
   <si>
     <t>68.1111111111111</t>
@@ -1391,6 +1532,9 @@
     <t>228.037037037037</t>
   </si>
   <si>
+    <t>293.296296296296</t>
+  </si>
+  <si>
     <t>1.27469135802469</t>
   </si>
   <si>
@@ -1400,13 +1544,7 @@
     <t>112.857142857143</t>
   </si>
   <si>
-    <t>441.428571428571</t>
-  </si>
-  <si>
-    <t>328.571428571429</t>
-  </si>
-  <si>
-    <t>1.07142857142857</t>
+    <t>575.75</t>
   </si>
   <si>
     <t>247.178571428571</t>
@@ -1424,25 +1562,25 @@
     <t>481.95</t>
   </si>
   <si>
+    <t>386</t>
+  </si>
+  <si>
     <t>1.78</t>
   </si>
   <si>
     <t>70.9859154929577</t>
   </si>
   <si>
+    <t>122.788732394366</t>
+  </si>
+  <si>
+    <t>0.563380281690141</t>
+  </si>
+  <si>
     <t>193.774647887324</t>
   </si>
   <si>
     <t>0.704225352112676</t>
-  </si>
-  <si>
-    <t>122.788732394366</t>
-  </si>
-  <si>
-    <t>0.563380281690141</t>
-  </si>
-  <si>
-    <t>0.484507042253521</t>
   </si>
 </sst>
 </file>
@@ -1658,46 +1796,46 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>29</v>
@@ -1706,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="1"/>
     </row>
@@ -1730,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>29</v>
@@ -1748,40 +1886,40 @@
         <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="W3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
@@ -1808,49 +1946,49 @@
         <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W4" s="1" t="b">
         <v>0</v>
@@ -1874,49 +2012,49 @@
         <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>29</v>
@@ -1925,13 +2063,13 @@
         <v>29</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="W5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Y5" s="1"/>
     </row>
@@ -1949,49 +2087,49 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>29</v>
@@ -2000,13 +2138,13 @@
         <v>29</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="W6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
@@ -2030,25 +2168,25 @@
         <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>29</v>
@@ -2057,16 +2195,16 @@
         <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>29</v>
@@ -2099,64 +2237,64 @@
         <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="Y8" s="1"/>
     </row>
@@ -2174,19 +2312,19 @@
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
@@ -2201,37 +2339,37 @@
         <v>29</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="1"/>
     </row>
@@ -2249,64 +2387,64 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="Y10" s="1"/>
     </row>
@@ -2324,64 +2462,64 @@
         <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="1"/>
     </row>
@@ -2399,64 +2537,64 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="W12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="Y12" s="1"/>
     </row>
@@ -2474,64 +2612,64 @@
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="W13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="Y13" s="1"/>
     </row>
@@ -2549,64 +2687,64 @@
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
@@ -2624,64 +2762,64 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="W15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="Y15" s="1"/>
     </row>
@@ -2699,64 +2837,64 @@
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="W16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="Y16" s="1"/>
     </row>
@@ -2774,64 +2912,64 @@
         <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="Y17" s="1"/>
     </row>
@@ -2849,64 +2987,64 @@
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="Y18" s="1"/>
     </row>
@@ -2924,64 +3062,64 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="W19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="Y19" s="1"/>
     </row>
@@ -2999,31 +3137,31 @@
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>29</v>
@@ -3035,22 +3173,22 @@
         <v>29</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="W20" s="1" t="b">
         <v>0</v>
@@ -3074,58 +3212,58 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="W21" s="1" t="b">
         <v>0</v>
@@ -3149,64 +3287,64 @@
         <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="Y22" s="1"/>
     </row>
@@ -3224,64 +3362,64 @@
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="Y23" s="1"/>
     </row>
@@ -3299,64 +3437,64 @@
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="W24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="Y24" s="1"/>
     </row>
@@ -3374,64 +3512,64 @@
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="W25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="Y25" s="1"/>
     </row>
@@ -3449,13 +3587,13 @@
         <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>29</v>
@@ -3464,16 +3602,16 @@
         <v>29</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>29</v>
@@ -3488,25 +3626,25 @@
         <v>29</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="W26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="Y26" s="1"/>
     </row>
@@ -3524,64 +3662,64 @@
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="W27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="Y27" s="1"/>
     </row>
@@ -3599,64 +3737,64 @@
         <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="Y28" s="1"/>
     </row>
@@ -3674,64 +3812,64 @@
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="W29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="Y29" s="1"/>
     </row>
@@ -3749,64 +3887,64 @@
         <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="W30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="Y30" s="1"/>
     </row>
@@ -3824,64 +3962,64 @@
         <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="W31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="Y31" s="1"/>
     </row>
@@ -3899,64 +4037,64 @@
         <v>28</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="W32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="Y32" s="1"/>
     </row>
@@ -3974,64 +4112,64 @@
         <v>28</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="W33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="Y33" s="1"/>
     </row>
@@ -4049,64 +4187,64 @@
         <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="W34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="Y34" s="1"/>
     </row>
@@ -4124,64 +4262,64 @@
         <v>28</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="Y35" s="1"/>
     </row>
@@ -4205,7 +4343,7 @@
         <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>29</v>
@@ -4214,13 +4352,13 @@
         <v>29</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>29</v>
@@ -4238,19 +4376,19 @@
         <v>29</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="W36" s="1" t="b">
         <v>0</v>
@@ -4262,7 +4400,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>26</v>
@@ -4274,70 +4412,70 @@
         <v>28</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="W37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="Y37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
@@ -4349,70 +4487,70 @@
         <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="W38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="Y38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>26</v>
@@ -4424,70 +4562,70 @@
         <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>297</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="W39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="Y39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>26</v>
@@ -4499,70 +4637,70 @@
         <v>28</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="W40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="Y40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>26</v>
@@ -4574,70 +4712,70 @@
         <v>28</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>271</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="W41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>26</v>
@@ -4649,70 +4787,70 @@
         <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>295</v>
+        <v>48</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="W42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="Y42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>26</v>
@@ -4724,70 +4862,70 @@
         <v>28</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>29</v>
+        <v>340</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="W43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="Y43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -4799,70 +4937,70 @@
         <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>308</v>
+        <v>29</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="W44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="Y44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>26</v>
@@ -4874,52 +5012,52 @@
         <v>28</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>316</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>29</v>
@@ -4931,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="Y45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>26</v>
@@ -4955,7 +5093,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>29</v>
@@ -4964,34 +5102,34 @@
         <v>29</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>29</v>
@@ -5000,19 +5138,19 @@
         <v>29</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="W46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="Y46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>26</v>
@@ -5024,34 +5162,34 @@
         <v>28</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>29</v>
@@ -5060,34 +5198,34 @@
         <v>29</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="W47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="Y47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>26</v>
@@ -5099,70 +5237,70 @@
         <v>28</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>333</v>
+        <v>29</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>334</v>
+        <v>29</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="W48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="Y48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>26</v>
@@ -5174,70 +5312,70 @@
         <v>28</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>29</v>
+        <v>384</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>29</v>
+        <v>388</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="W49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="Y49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>26</v>
@@ -5249,70 +5387,70 @@
         <v>28</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>392</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>238</v>
+        <v>371</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>347</v>
+        <v>120</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>29</v>
+        <v>393</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>37</v>
+        <v>394</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>37</v>
+        <v>364</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>29</v>
+        <v>396</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>29</v>
+        <v>397</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>348</v>
+        <v>155</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>29</v>
+        <v>398</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>29</v>
+        <v>398</v>
       </c>
       <c r="W50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="Y50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>26</v>
@@ -5324,70 +5462,70 @@
         <v>28</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="W51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="Y51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>26</v>
@@ -5399,58 +5537,58 @@
         <v>28</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>411</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>29</v>
+        <v>412</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>29</v>
+        <v>413</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>130</v>
+        <v>419</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="W52" s="1" t="b">
         <v>0</v>
@@ -5462,7 +5600,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>26</v>
@@ -5474,37 +5612,37 @@
         <v>28</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>361</v>
+        <v>29</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>362</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>365</v>
+        <v>29</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>366</v>
+        <v>48</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>354</v>
+        <v>48</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>60</v>
+        <v>421</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>29</v>
@@ -5513,31 +5651,31 @@
         <v>29</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>369</v>
+        <v>29</v>
       </c>
       <c r="Y53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>26</v>
@@ -5549,70 +5687,70 @@
         <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>29</v>
+        <v>423</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>29</v>
+        <v>423</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>29</v>
+        <v>424</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>29</v>
+        <v>425</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>29</v>
+        <v>426</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>29</v>
+        <v>427</v>
       </c>
       <c r="Y54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
@@ -5624,70 +5762,70 @@
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>374</v>
+        <v>146</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W55" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="Y55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>26</v>
@@ -5699,70 +5837,70 @@
         <v>28</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>380</v>
+        <v>174</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>382</v>
+        <v>48</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>383</v>
+        <v>48</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>384</v>
+        <v>29</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>29</v>
+        <v>436</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>389</v>
+        <v>29</v>
       </c>
       <c r="Y56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>26</v>
@@ -5774,70 +5912,70 @@
         <v>28</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>391</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>29</v>
+        <v>441</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>391</v>
+        <v>29</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>395</v>
+        <v>29</v>
       </c>
       <c r="Y57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>26</v>
@@ -5849,70 +5987,70 @@
         <v>28</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>29</v>
+        <v>448</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W58" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="Y58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>26</v>
@@ -5924,70 +6062,70 @@
         <v>28</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>29</v>
+        <v>456</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>29</v>
+        <v>457</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>29</v>
+        <v>459</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W59" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="Y59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>26</v>
@@ -5999,70 +6137,70 @@
         <v>28</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>412</v>
+        <v>92</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>414</v>
+        <v>60</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>416</v>
+        <v>92</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>418</v>
+        <v>85</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="Y60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>26</v>
@@ -6074,70 +6212,70 @@
         <v>28</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>29</v>
+        <v>467</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>425</v>
+        <v>226</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>425</v>
+        <v>92</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="Y61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>26</v>
@@ -6149,70 +6287,70 @@
         <v>28</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>29</v>
+        <v>474</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>29</v>
+        <v>475</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>427</v>
+        <v>238</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>432</v>
+        <v>241</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>425</v>
+        <v>241</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>37</v>
+        <v>482</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>37</v>
+        <v>483</v>
       </c>
       <c r="W62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>29</v>
+        <v>484</v>
       </c>
       <c r="Y62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>26</v>
@@ -6224,19 +6362,19 @@
         <v>28</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>436</v>
+        <v>74</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>215</v>
+        <v>485</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>123</v>
+        <v>485</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>29</v>
@@ -6245,49 +6383,49 @@
         <v>29</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>37</v>
+        <v>489</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>37</v>
+        <v>490</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>354</v>
+        <v>490</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="W63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="Y63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>26</v>
@@ -6299,70 +6437,70 @@
         <v>28</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>161</v>
+        <v>429</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>29</v>
+        <v>494</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>444</v>
+        <v>29</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>37</v>
+        <v>495</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="W64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>445</v>
+        <v>29</v>
       </c>
       <c r="Y64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>26</v>
@@ -6374,19 +6512,19 @@
         <v>28</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>29</v>
@@ -6401,43 +6539,43 @@
         <v>29</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>450</v>
+        <v>188</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="W65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="Y65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>26</v>
@@ -6449,70 +6587,70 @@
         <v>28</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>57</v>
+        <v>400</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>37</v>
+        <v>504</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="W66" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>29</v>
+        <v>507</v>
       </c>
       <c r="Y66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>26</v>
@@ -6524,70 +6662,70 @@
         <v>28</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>29</v>
+        <v>508</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>29</v>
+        <v>508</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>457</v>
+        <v>29</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>458</v>
+        <v>29</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>29</v>
+        <v>510</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>29</v>
+        <v>508</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>37</v>
+        <v>511</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>37</v>
+        <v>511</v>
       </c>
       <c r="W67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="Y67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>26</v>
@@ -6599,70 +6737,70 @@
         <v>28</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>464</v>
+        <v>267</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>231</v>
+        <v>92</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="W68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="Y68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>26</v>
@@ -6674,70 +6812,70 @@
         <v>28</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>467</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>37</v>
+        <v>520</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>385</v>
+        <v>522</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>469</v>
+        <v>48</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>469</v>
+        <v>48</v>
       </c>
       <c r="W69" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>470</v>
+        <v>29</v>
       </c>
       <c r="Y69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>26</v>
@@ -6755,58 +6893,58 @@
         <v>29</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>471</v>
+        <v>29</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>472</v>
+        <v>29</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>474</v>
+        <v>48</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>475</v>
+        <v>29</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>472</v>
+        <v>29</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>474</v>
+        <v>29</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>475</v>
+        <v>29</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>472</v>
+        <v>29</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>476</v>
+        <v>29</v>
       </c>
       <c r="Y70" s="1"/>
     </row>
